--- a/src/main/resources/template/excel/export/DOList.xlsx
+++ b/src/main/resources/template/excel/export/DOList.xlsx
@@ -102,10 +102,6 @@
     <t>审核人员:</t>
   </si>
   <si>
-    <t xml:space="preserve">审核时间:
-</t>
-  </si>
-  <si>
     <t>联系电话：</t>
   </si>
   <si>
@@ -187,10 +183,6 @@
   </si>
   <si>
     <t>${createTime}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${validityTime}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -329,6 +321,14 @@
   </si>
   <si>
     <t>${dealNum}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核时间:</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${validTime}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -589,6 +589,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -618,9 +621,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -929,7 +929,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -948,250 +948,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
+      <c r="B2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22"/>
+      <c r="J3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="F5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="F8" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="I8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="J8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="K8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="L8" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>61</v>
+      <c r="F9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="27" t="s">
-        <v>59</v>
+      <c r="I9" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>

--- a/src/main/resources/template/excel/export/DOList.xlsx
+++ b/src/main/resources/template/excel/export/DOList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,18 +35,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="L9")</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>jx:area(lastCell="M9")</t>
         </r>
       </text>
     </comment>
@@ -61,7 +50,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="L8")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="M8")</t>
         </r>
       </text>
     </comment>
@@ -70,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>配送出库单明细</t>
   </si>
@@ -163,47 +152,47 @@
   </si>
   <si>
     <t>${formNo}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${sourceBranchName}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${sourceBranchCode}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${targetBranchCode}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${createUserName}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${createTime}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${validUserName}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${contacts}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${mobile}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${targetBranchAddress}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${targetBranchName}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -224,15 +213,16 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${rebateMoney}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -253,83 +243,92 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${reamrk}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${obj.barCode}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${obj.skuCode}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${obj.skuName}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${obj.unit}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${obj.spec}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${obj.dealNum}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${obj.price}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${obj.amount}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${obj.inputTax}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${obj.taxAmount}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${obj.remark}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${obj.largeNum}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${amount}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${largeNum}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${dealNum}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>审核时间:</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${validTime}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否赠品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.isGiftDesc}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -353,6 +352,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -360,6 +360,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -367,19 +368,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -420,6 +416,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -543,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -569,30 +572,32 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -601,7 +606,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -610,10 +615,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -926,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -944,44 +949,47 @@
     <col min="9" max="9" width="12.625" customWidth="1"/>
     <col min="10" max="10" width="15.625" customWidth="1"/>
     <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="24.625" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="18" customWidth="1"/>
+    <col min="13" max="13" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1009,13 +1017,14 @@
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1043,13 +1052,14 @@
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1065,21 +1075,22 @@
       <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1089,17 +1100,18 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
     </row>
-    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1134,10 +1146,13 @@
         <v>27</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>46</v>
       </c>
@@ -1171,11 +1186,14 @@
       <c r="K8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
@@ -1196,21 +1214,22 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J5:M5"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
